--- a/VCF/BOM.xlsx
+++ b/VCF/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\GitHub\Diode-Ladder-VCF\VCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A244A0CB-C996-49B5-8EEA-6A9E62DFC7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC36597-4B12-477D-961C-CBB542432823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="795" windowWidth="17310" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>Value</t>
   </si>
@@ -43,111 +43,72 @@
     <t>R3</t>
   </si>
   <si>
-    <t>680R 1% 0.125W Resistor</t>
-  </si>
-  <si>
     <t>1k</t>
   </si>
   <si>
     <t>R17, R23</t>
   </si>
   <si>
-    <t>1k 1% 0.125W Resistor</t>
-  </si>
-  <si>
     <t>2k</t>
   </si>
   <si>
     <t>R11, R12</t>
   </si>
   <si>
-    <t>2k 1% 0.125W Resistor</t>
-  </si>
-  <si>
     <t>27k</t>
   </si>
   <si>
     <t>R16</t>
   </si>
   <si>
-    <t>27k 1% 0.125W Resistor</t>
-  </si>
-  <si>
     <t>33k</t>
   </si>
   <si>
     <t>R2, R4, R5, R6, R7, R8, R9, R10</t>
   </si>
   <si>
-    <t>33k 1% 0.125W Resistor</t>
-  </si>
-  <si>
     <t>47k</t>
   </si>
   <si>
     <t>R14, R15, R19, R22</t>
   </si>
   <si>
-    <t>47k 1% 0.125W Resistor</t>
-  </si>
-  <si>
     <t>100k</t>
   </si>
   <si>
     <t>R13, R18</t>
   </si>
   <si>
-    <t>100k 1% 0.125W Resistor</t>
-  </si>
-  <si>
     <t>200k</t>
   </si>
   <si>
     <t>R1, R20</t>
   </si>
   <si>
-    <t>200k 1% 0.125W Resistor</t>
-  </si>
-  <si>
     <t>1n</t>
   </si>
   <si>
     <t>C2, C3, C4, C5, C6</t>
   </si>
   <si>
-    <t>1n 50V MLCC</t>
-  </si>
-  <si>
     <t>100n</t>
   </si>
   <si>
     <t>C8, C9, C10, C11</t>
   </si>
   <si>
-    <t>100n 50V MLCC</t>
-  </si>
-  <si>
     <t>1u</t>
   </si>
   <si>
     <t>C1, C7</t>
   </si>
   <si>
-    <t>1u 50V MLCC</t>
-  </si>
-  <si>
     <t>10u</t>
   </si>
   <si>
     <t>C12, C13</t>
   </si>
   <si>
-    <t>10u 50V Electrolytic</t>
-  </si>
-  <si>
-    <t>5x5.4mm SMD</t>
-  </si>
-  <si>
     <t>1N4148</t>
   </si>
   <si>
@@ -157,9 +118,6 @@
     <t>1n4148 Gen. Purpose Diode</t>
   </si>
   <si>
-    <t>SOD-323</t>
-  </si>
-  <si>
     <t>TL074</t>
   </si>
   <si>
@@ -169,9 +127,6 @@
     <t>TL074 Quad Op-Amp</t>
   </si>
   <si>
-    <t>SOIC-14 3.9x8.7mm P1.27mm</t>
-  </si>
-  <si>
     <t>3.5mm Jack</t>
   </si>
   <si>
@@ -244,16 +199,79 @@
     <t>8-Pin Header Female P2.54mm</t>
   </si>
   <si>
-    <t>1206</t>
-  </si>
-  <si>
-    <t>0805</t>
-  </si>
-  <si>
     <t>Alpha 9mm</t>
   </si>
   <si>
     <t>2M DPDT Switch</t>
+  </si>
+  <si>
+    <t>C Rect 7.2x3.5mm P5.00mm</t>
+  </si>
+  <si>
+    <t>C Rect 7.2x2.5mm P5.00mm</t>
+  </si>
+  <si>
+    <t>C Disc 3.8x2.6mm P2.50mm</t>
+  </si>
+  <si>
+    <t>R Axial 6.3x2.5mm P7.62mm</t>
+  </si>
+  <si>
+    <t>CP Radial D5.0mm P2.00mm</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>DO-35 SOD27 P7.62mm</t>
+  </si>
+  <si>
+    <t>DIP-14 W7.62mm</t>
+  </si>
+  <si>
+    <t>10-Pin Box Header</t>
+  </si>
+  <si>
+    <t>2.54mm 2x5-Pin Vertical</t>
+  </si>
+  <si>
+    <t>2-Row 10-Pin Box Header P2.54mm</t>
+  </si>
+  <si>
+    <t>680R 0.25W Resistor</t>
+  </si>
+  <si>
+    <t>1k 0.25W Resistor</t>
+  </si>
+  <si>
+    <t>2k 0.25W Resistor</t>
+  </si>
+  <si>
+    <t>27k 0.25W Resistor</t>
+  </si>
+  <si>
+    <t>33k 0.25W Resistor</t>
+  </si>
+  <si>
+    <t>47k 0.25W Resistor</t>
+  </si>
+  <si>
+    <t>100k 0.25W Resistor</t>
+  </si>
+  <si>
+    <t>200k 0.25W Resistor</t>
+  </si>
+  <si>
+    <t>1u 50V Polyester Film Box Capacitor</t>
+  </si>
+  <si>
+    <t>100n 50V Ceramic Disc Capacitor</t>
+  </si>
+  <si>
+    <t>10u 25V Radial Electrolytic Capacitor</t>
+  </si>
+  <si>
+    <t>1n 100V Polyester Film Box Capacitor</t>
   </si>
 </sst>
 </file>
@@ -764,7 +782,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -788,6 +806,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F23"/>
+  <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1178,7 @@
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="20.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -1188,350 +1209,367 @@
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" s="6">
         <v>8</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6">
         <v>4</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C11" s="6">
         <v>5</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C12" s="6">
         <v>4</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C13" s="6">
         <v>2</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C14" s="6">
         <v>2</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C15" s="6">
         <v>12</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C16" s="6">
         <v>2</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C17" s="6">
         <v>4</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C18" s="6">
         <v>5</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>60</v>
+      <c r="B20" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C23" s="6">
         <v>1</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>70</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/VCF/BOM.xlsx
+++ b/VCF/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\GitHub\Diode-Ladder-VCF\VCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC36597-4B12-477D-961C-CBB542432823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6945244-E5A9-4D0A-8E0F-D7971EDA5FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="795" windowWidth="17310" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6075" yWindow="435" windowWidth="17310" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -782,7 +782,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -806,9 +806,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1166,19 +1163,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="20.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -1344,7 +1344,7 @@
       <c r="D11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="5" t="s">
         <v>83</v>
       </c>
       <c r="F11" s="8" t="s">
@@ -1361,7 +1361,7 @@
       <c r="D12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="5" t="s">
         <v>81</v>
       </c>
       <c r="F12" s="8" t="s">
@@ -1378,7 +1378,7 @@
       <c r="D13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -1395,7 +1395,7 @@
       <c r="D14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>82</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -1488,7 +1488,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C20" s="6">
@@ -1497,7 +1497,7 @@
       <c r="D20" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -1574,6 +1574,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="67" pageOrder="overThenDown" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>